--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>Field Type</t>
   </si>
@@ -113,6 +113,15 @@
     <t>&lt;model&gt;&lt;/model&gt;</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>bus address</t>
+  </si>
+  <si>
+    <t>&lt;address&gt;1&lt;/address&gt;</t>
+  </si>
+  <si>
     <t>firmware</t>
   </si>
   <si>
@@ -210,6 +219,12 @@
   </si>
   <si>
     <t>Absolute precipitation</t>
+  </si>
+  <si>
+    <t>E_RF_DIF[1..x]</t>
+  </si>
+  <si>
+    <t>Differential precipitation</t>
   </si>
   <si>
     <t>E_RF_I[1..x]</t>
@@ -671,7 +686,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,21 +880,24 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
@@ -893,7 +911,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
@@ -907,7 +925,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -921,27 +939,27 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>52</v>
@@ -949,7 +967,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -963,51 +981,51 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
@@ -1016,7 +1034,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
@@ -1030,13 +1048,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
@@ -1044,7 +1062,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1058,13 +1076,13 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>74</v>
@@ -1072,7 +1090,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>75</v>
@@ -1086,7 +1104,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>78</v>
@@ -1100,41 +1118,41 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>86</v>
@@ -1142,44 +1160,41 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>87</v>
       </c>
       <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>94</v>
@@ -1187,43 +1202,71 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
       </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -209,7 +209,7 @@
     <t>E_PRECIPITATION</t>
   </si>
   <si>
-    <t>Type of precipitation</t>
+    <t>Type of precipitation (0 = None; 10 = Rain; 20 = Snow; 30 = Unspecified)</t>
   </si>
   <si>
     <t>E_RF_ABS[1..x]</t>
@@ -697,7 +697,7 @@
     <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="54.129639" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="85.979004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="0"/>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>Field Type</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Temperature values</t>
+  </si>
+  <si>
+    <t>WATER_DEPTH</t>
+  </si>
+  <si>
+    <t>Water depth</t>
   </si>
   <si>
     <t>STATE[1..x]</t>
@@ -686,7 +692,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,15 +1241,18 @@
       <c r="B35" t="s">
         <v>100</v>
       </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1267,6 +1276,17 @@
       </c>
       <c r="D38" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Field Type</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>Snow load</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Soiling ratio</t>
   </si>
   <si>
     <t>SRAD[1..x]</t>
@@ -692,7 +698,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1200,10 +1206,10 @@
         <v>92</v>
       </c>
       <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1211,13 +1217,13 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1225,10 +1231,10 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>99</v>
@@ -1242,7 +1248,7 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>101</v>
@@ -1255,15 +1261,18 @@
       <c r="B36" t="s">
         <v>102</v>
       </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1287,6 +1296,17 @@
       </c>
       <c r="D39" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -293,19 +293,19 @@
     <t>Snow load</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>SRAD[1..x]</t>
+  </si>
+  <si>
+    <t>W/m2</t>
+  </si>
+  <si>
+    <t>Irradiation sensors</t>
+  </si>
+  <si>
+    <t>SR[1..x]</t>
   </si>
   <si>
     <t>Soiling ratio</t>
-  </si>
-  <si>
-    <t>SRAD[1..x]</t>
-  </si>
-  <si>
-    <t>W/m2</t>
-  </si>
-  <si>
-    <t>Irradiation sensors</t>
   </si>
   <si>
     <t>SUN_H[1..x]</t>
@@ -1206,10 +1206,10 @@
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1217,10 +1217,10 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
         <v>96</v>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>Field Type</t>
   </si>
@@ -318,6 +318,21 @@
   </si>
   <si>
     <t>Irradiation sensors</t>
+  </si>
+  <si>
+    <t>SRAD_DIFFUSE[1..x]</t>
+  </si>
+  <si>
+    <t>W/m²</t>
+  </si>
+  <si>
+    <t>Diffuse irradiance</t>
+  </si>
+  <si>
+    <t>SRAD_DIRECT[1..x]</t>
+  </si>
+  <si>
+    <t>Direct irradiance</t>
   </si>
   <si>
     <t>SR[1..x]</t>
@@ -398,22 +413,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -712,11 +728,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,14 +740,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="85.979004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="34.134521" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="85.979" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.569" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -1274,10 +1290,10 @@
         <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1285,10 +1301,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>105</v>
@@ -1302,7 +1318,7 @@
         <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
@@ -1316,10 +1332,10 @@
         <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1327,7 +1343,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1335,10 +1357,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1346,10 +1371,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1357,17 +1379,38 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1376,5 +1419,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -326,13 +326,13 @@
     <t>W/m²</t>
   </si>
   <si>
-    <t>Diffuse irradiance</t>
+    <t>Diffuse horizontal irradiance (DHI)</t>
   </si>
   <si>
     <t>SRAD_DIRECT[1..x]</t>
   </si>
   <si>
-    <t>Direct irradiance</t>
+    <t>Direct normal irradiance (DNI)</t>
   </si>
   <si>
     <t>SR[1..x]</t>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>Field Type</t>
   </si>
@@ -360,6 +360,24 @@
   </si>
   <si>
     <t>Water depth</t>
+  </si>
+  <si>
+    <t>WD_P</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Wash Power</t>
+  </si>
+  <si>
+    <t>WD_U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Battery Voltage</t>
   </si>
   <si>
     <t>STATE[1..x]</t>
@@ -732,7 +750,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,16 +1391,25 @@
       <c r="B42" t="s">
         <v>115</v>
       </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1390,10 +1417,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1401,10 +1425,32 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -368,7 +368,7 @@
     <t>W</t>
   </si>
   <si>
-    <t>Wash Power</t>
+    <t>Pump motor power</t>
   </si>
   <si>
     <t>WD_U</t>
@@ -377,7 +377,7 @@
     <t>V</t>
   </si>
   <si>
-    <t>Battery Voltage</t>
+    <t>Battery voltage</t>
   </si>
   <si>
     <t>STATE[1..x]</t>

--- a/import-specification/devices/meteo.xlsx
+++ b/import-specification/devices/meteo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>Field Type</t>
   </si>
@@ -314,16 +314,13 @@
     <t>SRAD[1..x]</t>
   </si>
   <si>
-    <t>W/m2</t>
+    <t>W/m²</t>
   </si>
   <si>
     <t>Irradiation sensors</t>
   </si>
   <si>
     <t>SRAD_DIFFUSE[1..x]</t>
-  </si>
-  <si>
-    <t>W/m²</t>
   </si>
   <si>
     <t>Diffuse horizontal irradiance (DHI)</t>
@@ -1308,10 +1305,10 @@
         <v>101</v>
       </c>
       <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1319,13 +1316,13 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
         <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1333,13 +1330,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1347,13 +1344,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>109</v>
-      </c>
-      <c r="D39" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1361,13 +1358,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
         <v>54</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1375,13 +1372,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1389,13 +1386,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" t="s">
         <v>115</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>116</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1403,13 +1400,13 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>119</v>
-      </c>
-      <c r="D43" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1417,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1425,10 +1422,10 @@
         <v>38</v>
       </c>
       <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
         <v>122</v>
-      </c>
-      <c r="D45" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1436,10 +1433,10 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" t="s">
         <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1447,10 +1444,10 @@
         <v>38</v>
       </c>
       <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" t="s">
         <v>126</v>
-      </c>
-      <c r="D47" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
